--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev.wsp\rreps\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>##</t>
   </si>
@@ -87,13 +87,16 @@
   </si>
   <si>
     <t>unhcr_date</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +122,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -264,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +311,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -303,8 +344,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,26 +641,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="8">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -641,8 +709,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -655,38 +723,45 @@
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="12"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>un_relationship_cd</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,29 +326,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,20 +633,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="9" max="15" width="16.5703125" customWidth="1"/>
+    <col min="9" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -662,30 +670,33 @@
       <c r="N1" s="8">
         <v>13</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="8">
         <v>14</v>
       </c>
+      <c r="P1" s="7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="13"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -704,13 +715,16 @@
       <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,43 +739,40 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="16"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -93,13 +93,64 @@
   </si>
   <si>
     <t>un_relationship_cd</t>
+  </si>
+  <si>
+    <t>Population Planning Group:</t>
+  </si>
+  <si>
+    <t>Asylum seekers and refugees</t>
+  </si>
+  <si>
+    <t>Sub-group (if applicable):</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>in numbers</t>
+  </si>
+  <si>
+    <t>in %</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>18-59</t>
+  </si>
+  <si>
+    <t>60 and &gt;</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>5-17</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>по</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +185,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -296,11 +362,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,6 +413,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,6 +443,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -682,21 +788,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -723,8 +829,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,32 +853,32 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -806,13 +912,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="26">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="26">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23"/>
+      <c r="D9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Запрос 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Запрос 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Запрос 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Запрос 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Запрос 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Запрос 4" sheetId="3" r:id="rId4"/>
     <sheet name="Запрос 5" sheetId="5" r:id="rId5"/>
     <sheet name="Запрос 6" sheetId="6" r:id="rId6"/>
     <sheet name="Запрос 7" sheetId="7" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -141,6 +141,39 @@
   </si>
   <si>
     <t>по</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>File#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Total ind’s</t>
+  </si>
+  <si>
+    <t>Reasons for de-activation</t>
+  </si>
+  <si>
+    <t>Страна происхождения клиента</t>
+  </si>
+  <si>
+    <t>Рег.номер</t>
+  </si>
+  <si>
+    <t>Имя и Фамилия клиента</t>
+  </si>
+  <si>
+    <t>Число членов семьи, включая апликанта</t>
+  </si>
+  <si>
+    <t>Статус апликанта</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
@@ -148,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -215,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -377,11 +410,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,6 +507,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +536,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,10 +565,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -789,20 +899,20 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="20"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -829,8 +939,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,32 +963,32 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -912,9 +1022,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -926,73 +1131,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="15">
         <v>42441</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="15">
         <v>42382</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="23"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1218,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="12"/>
@@ -1024,7 +1229,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="12"/>
@@ -1035,7 +1240,7 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="12"/>
@@ -1046,7 +1251,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="12"/>
@@ -1080,18 +1285,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,9 +501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -517,6 +514,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,6 +543,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,12 +560,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,10 +572,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -899,20 +902,20 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -939,8 +942,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -963,32 +966,32 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1024,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,47 +1041,47 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1086,7 +1089,7 @@
       <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1094,12 +1097,12 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1117,171 +1120,169 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J14"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="2" width="9" customWidth="1"/>
     <col min="4" max="6" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42441</v>
+      </c>
+    </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="15">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J3" s="14">
         <v>42382</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="J5" s="15"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="32" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="32"/>
-      <c r="D9" s="11" t="s">
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="35"/>
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+    </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Запрос 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Запрос 2" sheetId="8" r:id="rId2"/>
     <sheet name="Запрос 3" sheetId="2" r:id="rId3"/>
     <sheet name="Запрос 4" sheetId="3" r:id="rId4"/>
     <sheet name="Запрос 5" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -174,6 +174,33 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>action_type</t>
+  </si>
+  <si>
+    <t>action_state_cd</t>
+  </si>
+  <si>
+    <t>real_time_start</t>
+  </si>
+  <si>
+    <t>real_time_stop</t>
+  </si>
+  <si>
+    <t>scheduled_time_start</t>
+  </si>
+  <si>
+    <t>scheduled_time_stop</t>
+  </si>
+  <si>
+    <t>clients.t_client</t>
+  </si>
+  <si>
+    <t>clients.t_registration_form</t>
+  </si>
+  <si>
+    <t>Unique client_id</t>
   </si>
 </sst>
 </file>
@@ -183,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +254,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -462,11 +503,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,6 +580,13 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,20 +968,20 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="26"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -942,8 +1008,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -966,32 +1032,32 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1013,13 +1079,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="14">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="14">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="8" spans="2:16" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="23"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1061,40 +1220,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
@@ -1120,18 +1279,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="4" max="6" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="19" width="20.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="22" width="14" customWidth="1"/>
+    <col min="23" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="27" width="15" customWidth="1"/>
+    <col min="28" max="29" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" t="s">
@@ -1141,7 +1307,7 @@
         <v>42441</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="G3" s="14"/>
       <c r="I3" t="s">
@@ -1151,54 +1317,54 @@
         <v>42382</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="G4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="35" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="35"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="39"/>
       <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1395,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1406,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1417,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
@@ -1262,19 +1428,122 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="D13" s="19">
+        <f>D9+D10+D11+D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <f>E9+E10+E1+E12</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f>F9+F10+F1+F12</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f>G9+G10+G1+G12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f>H9+H10+H1+H12</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f>I9+I10+I1+I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="31"/>
+      <c r="AA14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="31"/>
+    </row>
+    <row r="16" spans="2:29" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>##</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>unhcr_date</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
   <si>
     <t>un_relationship_cd</t>
@@ -263,18 +260,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -426,17 +417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -518,11 +498,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,104 +528,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,51 +930,34 @@
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7">
-        <v>15</v>
-      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="I2" s="42"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="25"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1000,16 +976,16 @@
       <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>20</v>
+      <c r="O3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1022,42 +998,42 @@
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="10"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1081,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1097,80 +1073,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>42441</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>42382</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="14"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="O6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="O6" s="31" t="s">
+      <c r="P6" s="30"/>
+    </row>
+    <row r="8" spans="2:16" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="23"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="23"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="21"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1200,68 +1176,68 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="15" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1281,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1298,247 +1274,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="12">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>42382</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="38"/>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="39"/>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <f>D9+D10+D11+D12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <f>E9+E10+E1+E12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <f>F9+F10+F1+F12</f>
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="18">
         <f>G9+G10+G1+G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>H9+H10+H1+H12</f>
         <v>0</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <f>I9+I10+I1+I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="31" t="s">
+      <c r="V14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="30"/>
+      <c r="AA14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="AA14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB14" s="31"/>
-    </row>
-    <row r="16" spans="2:29" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="22" t="s">
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="16" spans="2:29" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="N16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="Q16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="X16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="W16" s="22" t="s">
+      <c r="AB16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="AC16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16" s="22" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="17" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Unique client_id</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,56 +576,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -630,6 +588,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,40 +933,41 @@
     <col min="9" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="41"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="22"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="42"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="27"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="30"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -982,10 +992,13 @@
       <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="Q3" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1006,34 +1019,35 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1086,14 +1100,14 @@
       <c r="C4" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="O6" s="30" t="s">
+      <c r="M6" s="35"/>
+      <c r="O6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="30"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="8" spans="2:16" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1196,40 +1210,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
@@ -1257,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1299,48 +1313,48 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="38"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1434,14 +1448,14 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="30" t="s">
+      <c r="V14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="30"/>
-      <c r="AA14" s="30" t="s">
+      <c r="W14" s="35"/>
+      <c r="AA14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AB14" s="30"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="16" spans="2:29" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="20" t="s">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -528,9 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,6 +635,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,11 +920,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -937,37 +935,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="44"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="27"/>
-      <c r="K2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="29"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -986,19 +982,19 @@
       <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1011,43 +1007,51 @@
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="24"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1087,80 +1091,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42441</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42382</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="O6" s="35" t="s">
+      <c r="M6" s="34"/>
+      <c r="O6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="8" spans="2:16" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="21"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="21"/>
+      <c r="B9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="20"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1190,68 +1194,68 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1288,247 +1292,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>42441</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>42382</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f>D9+D10+D11+D12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f>E9+E10+E1+E12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f>F9+F10+F1+F12</f>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f>G9+G10+G1+G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f>H9+H10+H1+H12</f>
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f>I9+I10+I1+I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="35" t="s">
+      <c r="V14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="AA14" s="35" t="s">
+      <c r="W14" s="34"/>
+      <c r="AA14" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AB14" s="35"/>
-    </row>
-    <row r="16" spans="2:29" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="20" t="s">
+      <c r="AB14" s="34"/>
+    </row>
+    <row r="16" spans="2:29" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="20" t="s">
+      <c r="T16" s="18"/>
+      <c r="U16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="20" t="s">
+      <c r="V16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="20" t="s">
+      <c r="X16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Z16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB16" s="20" t="s">
+      <c r="AB16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AC16" s="20" t="s">
+      <c r="AC16" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="11:29" x14ac:dyDescent="0.25">
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>##</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>total family members</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,9 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,30 +586,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,9 +647,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,81 +929,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="9" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="9" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="I1" s="25"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="26"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="25"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="32"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,43 +1024,44 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1104,14 +1120,14 @@
       <c r="C4" s="11"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="O6" s="34" t="s">
+      <c r="M6" s="37"/>
+      <c r="O6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="34"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="8" spans="2:16" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
@@ -1214,40 +1230,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1317,48 +1333,48 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="42"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1452,14 +1468,14 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="34" t="s">
+      <c r="V14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="34"/>
-      <c r="AA14" s="34" t="s">
+      <c r="W14" s="37"/>
+      <c r="AA14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AB14" s="34"/>
+      <c r="AB14" s="37"/>
     </row>
     <row r="16" spans="2:29" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="19" t="s">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Запрос 2" sheetId="8" r:id="rId2"/>
-    <sheet name="Запрос 3" sheetId="2" r:id="rId3"/>
-    <sheet name="Запрос 4" sheetId="3" r:id="rId4"/>
-    <sheet name="Запрос 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Запрос 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Запрос 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Запрос 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Запрос 2-4" sheetId="3" r:id="rId3"/>
+    <sheet name="Запрос 5" sheetId="5" r:id="rId4"/>
+    <sheet name="Запрос 6" sheetId="6" r:id="rId5"/>
+    <sheet name="Запрос 7" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>##</t>
   </si>
@@ -134,12 +133,6 @@
     <t>5-17</t>
   </si>
   <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>по</t>
-  </si>
-  <si>
     <t>COO</t>
   </si>
   <si>
@@ -176,9 +169,6 @@
     <t>action_type</t>
   </si>
   <si>
-    <t>action_state_cd</t>
-  </si>
-  <si>
     <t>real_time_start</t>
   </si>
   <si>
@@ -197,13 +187,16 @@
     <t>clients.t_registration_form</t>
   </si>
   <si>
-    <t>Unique client_id</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
     <t>total family members</t>
+  </si>
+  <si>
+    <t>action_result_id</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -517,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,6 +591,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -962,20 +959,20 @@
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="34"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -983,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>14</v>
@@ -1004,12 +1001,12 @@
         <v>17</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1034,32 +1031,32 @@
       <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1089,111 +1086,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="11">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="11">
-        <v>42382</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="O6" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="8" spans="2:16" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="20"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:P6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1211,59 +1103,59 @@
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="D5" s="35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1287,11 +1179,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1310,22 +1202,12 @@
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="11">
-        <v>42441</v>
-      </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="11">
-        <v>42382</v>
-      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -1333,48 +1215,48 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="45"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1468,24 +1350,34 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" s="37"/>
-      <c r="AA14" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB14" s="37"/>
+      <c r="V14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="39"/>
+      <c r="AA14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" s="39"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="F15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:29" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>17</v>
@@ -1494,16 +1386,16 @@
         <v>15</v>
       </c>
       <c r="P16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="T16" s="18"/>
       <c r="U16" s="19" t="s">
@@ -1565,6 +1457,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1590,16 +1494,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -616,23 +616,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -1142,20 +1142,20 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1350,14 +1350,14 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="AA14" s="39" t="s">
+      <c r="W14" s="44"/>
+      <c r="AA14" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="39"/>
+      <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C15" s="30" t="s">
@@ -1427,7 +1427,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="14"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>##</t>
   </si>
@@ -197,6 +197,36 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>UAC</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>13-17</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>18–59</t>
+  </si>
+  <si>
+    <t>=&gt; 60</t>
+  </si>
+  <si>
+    <t>Inds</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>5-12</t>
   </si>
 </sst>
 </file>
@@ -279,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -506,11 +536,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,6 +780,54 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1462,13 +1646,164 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="61"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="64"/>
+      <c r="N5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="61"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J3:O4"/>
+    <mergeCell ref="P3:Q5"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -731,6 +731,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,16 +785,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,20 +1143,20 @@
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1189,8 +1189,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1215,32 +1215,32 @@
       <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1272,16 +1272,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1306,40 +1306,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1399,48 +1399,48 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1534,14 +1534,14 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="44" t="s">
+      <c r="V14" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="AA14" s="44" t="s">
+      <c r="W14" s="45"/>
+      <c r="AA14" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="44"/>
+      <c r="AB14" s="45"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C15" s="30" t="s">
@@ -1648,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1659,23 +1659,23 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="53"/>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="53"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="52" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="58"/>
@@ -1683,7 +1683,7 @@
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
       <c r="O3" s="53"/>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="52" t="s">
         <v>26</v>
       </c>
       <c r="Q3" s="53"/>
@@ -1692,8 +1692,8 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="54"/>
       <c r="E4" s="55"/>
       <c r="F4" s="56"/>
@@ -1711,77 +1711,77 @@
       <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="56"/>
       <c r="E5" s="57"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="63" t="s">
         <v>65</v>
       </c>
       <c r="M5" s="64"/>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="56"/>
       <c r="Q5" s="57"/>
       <c r="R5" s="61"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="32" t="s">
         <v>64</v>
       </c>
       <c r="R6" s="62"/>
@@ -1789,18 +1789,18 @@
     <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P3:Q5"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D3:E5"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="J3:O4"/>
-    <mergeCell ref="P3:Q5"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>##</t>
   </si>
@@ -309,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -642,11 +642,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,6 +773,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,6 +791,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,6 +853,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,9 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1139,6 +1164,12 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
       <c r="I2" s="25"/>
       <c r="L2" s="23"/>
     </row>
@@ -1251,7 +1282,8 @@
       <c r="G7" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:B6"/>
@@ -1272,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1284,7 +1316,14 @@
     <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>44</v>
@@ -1306,7 +1345,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -1326,20 +1365,20 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1350,7 +1389,8 @@
       <c r="G8" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="F5:F7"/>
@@ -1365,9 +1405,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC17"/>
+  <dimension ref="B2:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1381,66 +1423,73 @@
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
     <col min="26" max="27" width="15" customWidth="1"/>
     <col min="28" max="29" width="23.28515625" customWidth="1"/>
+    <col min="30" max="30" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="G2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="G3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="46" t="s">
+    <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="48" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="48"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="50"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1471,7 +1520,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1531,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1542,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1553,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
@@ -1533,17 +1582,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="V14" s="45" t="s">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V14" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="45"/>
-      <c r="AA14" s="45" t="s">
+      <c r="W14" s="47"/>
+      <c r="AA14" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="45"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB14" s="47"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1602,7 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="2:29" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
@@ -1606,8 +1655,11 @@
       <c r="AC16" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="11:30" x14ac:dyDescent="0.25">
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1625,9 +1677,11 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C4:I4"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="C5:E5"/>
@@ -1665,56 +1719,56 @@
       <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="52" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="62" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="33" t="s">
         <v>4</v>
       </c>
@@ -1727,21 +1781,21 @@
         <v>29</v>
       </c>
       <c r="K5" s="34"/>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="33" t="s">
         <v>58</v>
       </c>
       <c r="O5" s="34"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="61"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
@@ -1784,7 +1838,7 @@
       <c r="Q6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="62"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -752,6 +752,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,53 +812,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="9" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="20.140625" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
@@ -1164,30 +1165,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="25"/>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1221,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1246,32 +1247,32 @@
       <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1317,12 +1318,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1345,40 +1346,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1438,58 +1439,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="51"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1583,14 +1584,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="47" t="s">
+      <c r="V14" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="47"/>
-      <c r="AA14" s="47" t="s">
+      <c r="W14" s="48"/>
+      <c r="AA14" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="47"/>
+      <c r="AB14" s="48"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="30" t="s">
@@ -1702,9 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1713,89 +1712,89 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="33" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="63"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
@@ -1838,11 +1837,34 @@
       <c r="Q6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="64"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="R6" s="61"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J3:O4"/>
     <mergeCell ref="P3:Q5"/>
     <mergeCell ref="R3:R6"/>
     <mergeCell ref="F5:G5"/>
@@ -1850,11 +1872,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,6 +811,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,6 +835,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,18 +856,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1153,49 +1153,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="27"/>
+      <c r="A1" s="27"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="25"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="24"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="35"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1216,13 +1216,13 @@
       <c r="Q3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1237,42 +1237,42 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="29"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1318,12 +1318,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1346,40 +1346,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17:AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,58 +1439,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="51"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1584,21 +1584,21 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="48" t="s">
+      <c r="V14" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="48"/>
-      <c r="AA14" s="48" t="s">
+      <c r="W14" s="47"/>
+      <c r="AA14" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="48"/>
+      <c r="AB14" s="47"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="14"/>
@@ -1664,21 +1664,21 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="20"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1712,132 +1712,132 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="53" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="62" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="60"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="62" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="66"/>
+      <c r="N5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="60"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="61"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1860,11 +1860,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J3:O4"/>
     <mergeCell ref="P3:Q5"/>
     <mergeCell ref="R3:R6"/>
     <mergeCell ref="F5:G5"/>
@@ -1872,6 +1867,11 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -751,6 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +812,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,7 +860,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1165,30 +1171,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1221,8 +1227,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1247,32 +1253,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1318,12 +1324,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1346,40 +1352,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1408,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17:AD17"/>
     </sheetView>
   </sheetViews>
@@ -1439,58 +1445,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="51"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1584,14 +1590,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="47" t="s">
+      <c r="V14" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="47"/>
-      <c r="AA14" s="47" t="s">
+      <c r="W14" s="48"/>
+      <c r="AA14" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="47"/>
+      <c r="AB14" s="48"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -1664,21 +1670,21 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="67"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1703,98 +1709,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="33"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="63"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="33" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="68"/>
+      <c r="N5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="63"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="65"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -1837,7 +1858,7 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1856,22 +1877,23 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="R7" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P3:Q5"/>
+  <mergeCells count="13">
     <mergeCell ref="R3:R6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C2:P2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D3:E5"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="J3:O4"/>
+    <mergeCell ref="P3:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>##</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>5-12</t>
+  </si>
+  <si>
+    <t>appicant_id</t>
   </si>
 </sst>
 </file>
@@ -752,6 +755,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,9 +865,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,30 +1174,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1227,8 +1230,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1253,32 +1256,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1324,12 +1327,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1352,40 +1355,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1414,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17:AD17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,58 +1448,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1590,14 +1593,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="48" t="s">
+      <c r="V14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="48"/>
-      <c r="AA14" s="48" t="s">
+      <c r="W14" s="49"/>
+      <c r="AA14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="48"/>
+      <c r="AB14" s="49"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -1707,115 +1710,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R7"/>
+  <dimension ref="B2:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="20" max="29" width="21.28515625" customWidth="1"/>
+    <col min="31" max="35" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="33"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+    <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="34"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="64" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="65" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="65"/>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="34" t="s">
+      <c r="T3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="66"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+    </row>
+    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="65"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="66"/>
+    </row>
+    <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -1858,9 +1918,9 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="66"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="67"/>
+    </row>
+    <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1877,7 +1937,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="69"/>
+      <c r="R7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>##</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>appicant_id</t>
+  </si>
+  <si>
+    <t>Interviewed</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Incl UAC</t>
+  </si>
+  <si>
+    <t>Country of origin</t>
   </si>
 </sst>
 </file>
@@ -312,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -663,11 +678,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -758,6 +808,15 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +923,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,30 +1248,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1304,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,32 +1330,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1327,12 +1401,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1355,40 +1429,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1448,58 +1522,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="52"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1593,14 +1667,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="49" t="s">
+      <c r="V14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="49"/>
-      <c r="AA14" s="49" t="s">
+      <c r="W14" s="52"/>
+      <c r="AA14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="49"/>
+      <c r="AB14" s="52"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -1712,7 +1786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AI3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1722,51 +1798,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="34"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="57" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="65" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="68" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
@@ -1816,23 +1892,23 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="66"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="69"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="32"/>
@@ -1845,37 +1921,37 @@
       <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="68" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="66"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -1918,7 +1994,7 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1962,13 +2038,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="8" max="17" width="22.5703125" customWidth="1"/>
+    <col min="19" max="23" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="J5" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>##</t>
   </si>
@@ -245,6 +245,183 @@
   </si>
   <si>
     <t>Country of origin</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t># of active court cases</t>
+  </si>
+  <si>
+    <t>Legal ground</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> instance  court decision adopted in reporting period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> instance court decision adopted in  reporting period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> instance court decision adopted in  reporting period</t>
+    </r>
+  </si>
+  <si>
+    <t>Status of court cases by the end of the reporting period</t>
+  </si>
+  <si>
+    <t>Art5</t>
+  </si>
+  <si>
+    <t>Art8</t>
+  </si>
+  <si>
+    <t>Art  6</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Closed/ Suspended</t>
+  </si>
+  <si>
+    <t>Pending I</t>
+  </si>
+  <si>
+    <t>Pending II</t>
+  </si>
+  <si>
+    <t>Pending III</t>
+  </si>
+  <si>
+    <t>Pos. Fin</t>
+  </si>
+  <si>
+    <t>Neg Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive final </t>
+  </si>
+  <si>
+    <t>Exhausted</t>
+  </si>
+  <si>
+    <t>Ass. Term/Suspended</t>
+  </si>
+  <si>
+    <t>Dur. Sol./Resubmission</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>court_case_state_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ladget_date</t>
+  </si>
+  <si>
+    <t>decision_date</t>
+  </si>
+  <si>
+    <t>cs.ms_rejection_cd</t>
   </si>
 </sst>
 </file>
@@ -254,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +483,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -327,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -713,11 +935,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,6 +1162,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +1225,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,21 +1273,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,6 +1287,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,30 +1659,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1304,8 +1715,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1330,32 +1741,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1401,12 +1812,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1429,40 +1840,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1522,58 +1933,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -1667,14 +2078,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="52" t="s">
+      <c r="V14" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="52"/>
-      <c r="AA14" s="52" t="s">
+      <c r="W14" s="53"/>
+      <c r="AA14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="52"/>
+      <c r="AB14" s="53"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -1798,51 +2209,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="37"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="60" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="68" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="58" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
@@ -1892,23 +2303,23 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="69"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="59"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="32"/>
@@ -1921,37 +2332,37 @@
       <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="38" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="71" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="69"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -1994,7 +2405,7 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="70"/>
+      <c r="R6" s="60"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -2017,12 +2428,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
@@ -2030,6 +2435,12 @@
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="J3:O4"/>
     <mergeCell ref="P3:Q5"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2040,7 +2451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2050,24 +2463,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="2:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2115,8 +2528,8 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="34" t="s">
         <v>68</v>
       </c>
@@ -2151,12 +2564,382 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AL9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="31" max="32" width="22.7109375" customWidth="1"/>
+    <col min="33" max="33" width="43.28515625" customWidth="1"/>
+    <col min="34" max="38" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+    </row>
+    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AE3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AH4" s="97"/>
+    </row>
+    <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+    </row>
+    <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+    </row>
+    <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC7" s="95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+    </row>
+    <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="R3:U5"/>
+    <mergeCell ref="V3:AC5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="N3:Q5"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="G3:I5"/>
+    <mergeCell ref="J3:M5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="N6:N8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -1165,6 +1165,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1288,15 +1294,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,15 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,30 +1659,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="43"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1715,8 +1715,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1741,32 +1741,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1812,12 +1812,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1840,40 +1840,40 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1933,58 +1933,58 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="56"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -2078,14 +2078,14 @@
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="V14" s="53" t="s">
+      <c r="V14" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="53"/>
-      <c r="AA14" s="53" t="s">
+      <c r="W14" s="55"/>
+      <c r="AA14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="53"/>
+      <c r="AB14" s="55"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -2209,51 +2209,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="38"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="66" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="66" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="60" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
@@ -2303,23 +2303,23 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="59"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="61"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="32"/>
@@ -2332,37 +2332,37 @@
       <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="64"/>
+      <c r="N5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="59"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="60"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -2463,24 +2463,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2528,8 +2528,8 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="34" t="s">
         <v>68</v>
       </c>
@@ -2570,76 +2570,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="31" max="32" width="22.7109375" customWidth="1"/>
     <col min="33" max="33" width="43.28515625" customWidth="1"/>
-    <col min="34" max="38" width="22.7109375" customWidth="1"/>
+    <col min="34" max="36" width="22.7109375" customWidth="1"/>
+    <col min="37" max="37" width="32.140625" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="80" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80" t="s">
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="91" t="s">
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
       <c r="AE3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2666,179 +2670,179 @@
       </c>
     </row>
     <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="91"/>
-      <c r="AH4" s="97"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AH4" s="38"/>
     </row>
     <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
     </row>
     <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="81" t="s">
+      <c r="T6" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="79" t="s">
+      <c r="W6" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="80" t="s">
+      <c r="X6" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80" t="s">
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
     </row>
     <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="93" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="93" t="s">
+      <c r="Y7" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" s="94" t="s">
+      <c r="Z7" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="95" t="s">
+      <c r="AA7" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="95" t="s">
+      <c r="AB7" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="95" t="s">
+      <c r="AC7" s="98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="37" t="s">
         <v>96</v>
       </c>
@@ -2848,66 +2852,62 @@
       <c r="F8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R3:U5"/>
-    <mergeCell ref="V3:AC5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="X7:X8"/>
@@ -2920,11 +2920,16 @@
     <mergeCell ref="T6:T8"/>
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="V6:V8"/>
-    <mergeCell ref="N3:Q5"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="G6:G8"/>
+    <mergeCell ref="R3:U5"/>
+    <mergeCell ref="V3:AC5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="N6:N8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:F7"/>
@@ -2934,10 +2939,9 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N3:Q5"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>##</t>
   </si>
@@ -1062,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,10 +1298,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1333,23 +1333,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,11 +1903,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD17"/>
+  <dimension ref="B2:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:S16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1914,24 +1915,24 @@
     <col min="11" max="19" width="20.5703125" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
     <col min="21" max="22" width="14" customWidth="1"/>
-    <col min="23" max="24" width="21.85546875" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" customWidth="1"/>
-    <col min="26" max="27" width="15" customWidth="1"/>
-    <col min="28" max="29" width="23.28515625" customWidth="1"/>
-    <col min="30" max="30" width="25.5703125" customWidth="1"/>
+    <col min="23" max="25" width="21.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="28" width="15" customWidth="1"/>
+    <col min="29" max="30" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="G2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="G3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -1942,7 +1943,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="56" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="2:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="56" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +1967,7 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="58" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +1984,7 @@
       </c>
       <c r="I7" s="59"/>
     </row>
-    <row r="8" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
@@ -2004,7 +2005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2015,7 +2016,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
@@ -2077,17 +2078,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V14" s="55" t="s">
         <v>50</v>
       </c>
       <c r="W14" s="55"/>
-      <c r="AA14" s="55" t="s">
+      <c r="AB14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="55"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AC14" s="55"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -2097,7 +2098,7 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
@@ -2138,47 +2139,51 @@
       <c r="X16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="19" t="s">
+      <c r="Y16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="19" t="s">
+      <c r="AB16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AC16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AC16" s="19" t="s">
+      <c r="AD16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AD16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="11:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:31" x14ac:dyDescent="0.25">
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="32"/>
+      <c r="N17" s="100"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Z17" s="14"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="V14:W14"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
@@ -2566,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2581,29 +2586,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="81" t="s">
@@ -2634,16 +2639,16 @@
       <c r="S3" s="81"/>
       <c r="T3" s="81"/>
       <c r="U3" s="81"/>
-      <c r="V3" s="94" t="s">
+      <c r="V3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
       <c r="AE3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2670,8 +2675,8 @@
       </c>
     </row>
     <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
@@ -2690,19 +2695,19 @@
       <c r="S4" s="81"/>
       <c r="T4" s="81"/>
       <c r="U4" s="81"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
       <c r="AH4" s="38"/>
     </row>
     <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
@@ -2721,70 +2726,70 @@
       <c r="S5" s="81"/>
       <c r="T5" s="81"/>
       <c r="U5" s="81"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
     </row>
     <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="83" t="s">
+      <c r="N6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="83" t="s">
+      <c r="Q6" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="83" t="s">
+      <c r="T6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="82" t="s">
+      <c r="W6" s="83" t="s">
         <v>88</v>
       </c>
       <c r="X6" s="81" t="s">
@@ -2799,50 +2804,50 @@
       <c r="AC6" s="81"/>
     </row>
     <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="96" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="96" t="s">
+      <c r="Y7" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" s="97" t="s">
+      <c r="Z7" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="98" t="s">
+      <c r="AA7" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="98" t="s">
+      <c r="AB7" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="98" t="s">
+      <c r="AC7" s="97" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="84"/>
-      <c r="C8" s="82"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="37" t="s">
         <v>96</v>
       </c>
@@ -2852,29 +2857,29 @@
       <c r="F8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
@@ -2908,7 +2913,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:R2"/>
     <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="X7:X8"/>
     <mergeCell ref="Y7:Y8"/>
@@ -2916,6 +2920,11 @@
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="B2:R2"/>
     <mergeCell ref="S6:S8"/>
     <mergeCell ref="T6:T8"/>
     <mergeCell ref="U6:U8"/>
@@ -2924,12 +2933,9 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="R3:U5"/>
     <mergeCell ref="V3:AC5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N3:Q5"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:F7"/>
@@ -2939,9 +2945,8 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="N3:Q5"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>##</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>cs.ms_rejection_cd</t>
+  </si>
+  <si>
+    <t>file_status_name</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>unhcr_num</t>
   </si>
 </sst>
 </file>
@@ -1171,6 +1180,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,48 +1306,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,12 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,30 +1671,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1718,8 +1727,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1744,32 +1753,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1800,9 +1809,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G8"/>
+  <dimension ref="B3:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1812,17 +1821,19 @@
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="9" max="14" width="18.5703125" customWidth="1"/>
+    <col min="16" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
@@ -1842,49 +1853,76 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
+      <c r="I8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1905,7 +1943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1934,58 +1974,58 @@
     </row>
     <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -2079,14 +2119,14 @@
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="V14" s="55" t="s">
+      <c r="V14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="55"/>
-      <c r="AB14" s="55" t="s">
+      <c r="W14" s="56"/>
+      <c r="AB14" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="55"/>
+      <c r="AC14" s="56"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -2162,22 +2202,22 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="100"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2214,51 +2254,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="40"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="68" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="61" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
@@ -2308,23 +2348,23 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="62"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="32"/>
@@ -2337,37 +2377,37 @@
       <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="41" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="63" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="61"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -2410,7 +2450,7 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="62"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -2456,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,24 +2508,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2533,8 +2573,8 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="34" t="s">
         <v>68</v>
       </c>
@@ -2605,50 +2645,50 @@
       <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="81" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81" t="s">
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="99" t="s">
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
       <c r="AE3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2675,179 +2715,179 @@
       </c>
     </row>
     <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
       <c r="AH4" s="38"/>
     </row>
     <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
     </row>
     <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="83" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="82" t="s">
+      <c r="M6" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="82" t="s">
+      <c r="Q6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="82" t="s">
+      <c r="R6" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="83" t="s">
+      <c r="W6" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="81" t="s">
+      <c r="X6" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81" t="s">
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
     </row>
     <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="95" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="95" t="s">
+      <c r="Y7" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" s="96" t="s">
+      <c r="Z7" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="97" t="s">
+      <c r="AA7" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="97" t="s">
+      <c r="AB7" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="97" t="s">
+      <c r="AC7" s="99" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="37" t="s">
         <v>96</v>
       </c>
@@ -2857,29 +2897,29 @@
       <c r="F8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>##</t>
   </si>
@@ -1071,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,7 +1158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,30 +1670,30 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="I2" s="24"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="43"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1727,8 +1726,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1753,32 +1752,32 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -1811,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1826,12 +1825,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1854,40 +1853,40 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1974,58 +1973,58 @@
     </row>
     <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="2:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="60"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -2119,14 +2118,14 @@
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="V14" s="56" t="s">
+      <c r="V14" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="56"/>
-      <c r="AB14" s="56" t="s">
+      <c r="W14" s="55"/>
+      <c r="AB14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="56"/>
+      <c r="AC14" s="55"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
@@ -2202,22 +2201,22 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="40"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2240,65 +2239,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AI7"/>
+  <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AI3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="20" max="29" width="21.28515625" customWidth="1"/>
-    <col min="31" max="35" width="12.42578125" customWidth="1"/>
+    <col min="20" max="26" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="41"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="69" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="69" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="69" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="61" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="60" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
@@ -2320,94 +2316,67 @@
         <v>15</v>
       </c>
       <c r="Z3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="62"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="61"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="32"/>
+      <c r="V4" s="39"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-    </row>
-    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="42" t="s">
+      <c r="Z4" s="39"/>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="64" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="64"/>
+      <c r="N5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="62"/>
-    </row>
-    <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="61"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -2450,9 +2419,9 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="63"/>
-    </row>
-    <row r="7" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2469,7 +2438,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="33"/>
+      <c r="R7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2508,24 +2477,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2573,19 +2542,19 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="J4" s="36"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
@@ -2593,7 +2562,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2626,69 +2595,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="83" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="95" t="s">
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
       <c r="AE3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2715,241 +2684,241 @@
       </c>
     </row>
     <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AH4" s="38"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AH4" s="37"/>
     </row>
     <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
     </row>
     <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="82" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="93" t="s">
+      <c r="Q6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="93" t="s">
+      <c r="R6" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="93" t="s">
+      <c r="T6" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="82" t="s">
+      <c r="W6" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="83" t="s">
+      <c r="X6" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83" t="s">
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
     </row>
     <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="97" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="97" t="s">
+      <c r="Y7" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" s="98" t="s">
+      <c r="Z7" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="99" t="s">
+      <c r="AA7" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="99" t="s">
+      <c r="AC7" s="98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>##</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>unhcr_num</t>
+  </si>
+  <si>
+    <t>court_case_id</t>
+  </si>
+  <si>
+    <t>court_case_lawsuit_id</t>
   </si>
 </sst>
 </file>
@@ -2239,17 +2245,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z7"/>
+  <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="20" max="26" width="21.28515625" customWidth="1"/>
+    <col min="20" max="27" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="40"/>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
@@ -2265,7 +2271,7 @@
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -2301,25 +2307,28 @@
         <v>12</v>
       </c>
       <c r="U3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="70"/>
@@ -2339,13 +2348,14 @@
       <c r="R4" s="61"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="39"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="72"/>
@@ -2374,7 +2384,7 @@
       <c r="Q5" s="73"/>
       <c r="R5" s="61"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="31" t="s">
@@ -2421,7 +2431,7 @@
       </c>
       <c r="R6" s="62"/>
     </row>
-    <row r="7" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2578,23 +2588,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AL9"/>
+  <dimension ref="B2:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="31" max="32" width="22.7109375" customWidth="1"/>
-    <col min="33" max="33" width="43.28515625" customWidth="1"/>
-    <col min="34" max="36" width="22.7109375" customWidth="1"/>
-    <col min="37" max="37" width="32.140625" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" customWidth="1"/>
+    <col min="31" max="34" width="22.7109375" customWidth="1"/>
+    <col min="35" max="35" width="46.85546875" customWidth="1"/>
+    <col min="36" max="38" width="22.7109375" customWidth="1"/>
+    <col min="39" max="39" width="32.140625" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
       <c r="D2" s="93"/>
@@ -2613,7 +2623,7 @@
       <c r="Q2" s="93"/>
       <c r="R2" s="93"/>
     </row>
-    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="81" t="s">
         <v>0</v>
       </c>
@@ -2662,28 +2672,34 @@
         <v>12</v>
       </c>
       <c r="AF3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AM3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="82"/>
@@ -2712,9 +2728,9 @@
       <c r="AA4" s="94"/>
       <c r="AB4" s="94"/>
       <c r="AC4" s="94"/>
-      <c r="AH4" s="37"/>
-    </row>
-    <row r="5" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="37"/>
+    </row>
+    <row r="5" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
       <c r="D5" s="82"/>
@@ -2744,7 +2760,7 @@
       <c r="AB5" s="94"/>
       <c r="AC5" s="94"/>
     </row>
-    <row r="6" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
       <c r="D6" s="82"/>
@@ -2812,7 +2828,7 @@
       <c r="AB6" s="82"/>
       <c r="AC6" s="82"/>
     </row>
-    <row r="7" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="D7" s="82"/>
@@ -2854,7 +2870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="95"/>
       <c r="C8" s="81"/>
       <c r="D8" s="36" t="s">
@@ -2890,7 +2906,7 @@
       <c r="AB8" s="99"/>
       <c r="AC8" s="99"/>
     </row>
-    <row r="9" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>##</t>
   </si>
@@ -1248,21 +1248,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,6 +1281,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,41 +1309,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1356,16 +1341,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2245,121 +2245,117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA7"/>
+  <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="20" max="27" width="21.28515625" customWidth="1"/>
+    <col min="20" max="26" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="40"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="68" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="71" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="X3" s="19" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="61"/>
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="72"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="39"/>
-    </row>
-    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="Z4" s="39"/>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
@@ -2372,21 +2368,21 @@
         <v>29</v>
       </c>
       <c r="K5" s="42"/>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="41" t="s">
         <v>58</v>
       </c>
       <c r="O5" s="42"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="61"/>
-    </row>
-    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="72"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="31" t="s">
         <v>59</v>
       </c>
@@ -2429,9 +2425,9 @@
       <c r="Q6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="62"/>
-    </row>
-    <row r="7" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="73"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2452,6 +2448,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
@@ -2459,12 +2461,6 @@
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="J3:O4"/>
     <mergeCell ref="P3:Q5"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2590,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2605,69 +2601,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="82" t="s">
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82" t="s">
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="94" t="s">
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
       <c r="AE3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2700,179 +2696,179 @@
       </c>
     </row>
     <row r="4" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
       <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
     </row>
     <row r="6" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q6" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="92" t="s">
+      <c r="T6" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="81" t="s">
+      <c r="W6" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="82" t="s">
+      <c r="X6" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82" t="s">
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
     </row>
     <row r="7" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="96" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="96" t="s">
+      <c r="Y7" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" s="97" t="s">
+      <c r="Z7" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="98" t="s">
+      <c r="AA7" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="98" t="s">
+      <c r="AB7" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="98" t="s">
+      <c r="AC7" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="36" t="s">
         <v>96</v>
       </c>
@@ -2882,29 +2878,29 @@
       <c r="F8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
     </row>
     <row r="9" spans="2:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
@@ -2938,14 +2934,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="G3:I5"/>
+    <mergeCell ref="J3:M5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="W6:W8"/>
     <mergeCell ref="R6:R8"/>
     <mergeCell ref="N6:N8"/>
@@ -2962,16 +2960,14 @@
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="G3:I5"/>
-    <mergeCell ref="J3:M5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X6:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -1948,9 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2103,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="17">
-        <f>E9+E10+E1+E12</f>
+        <f>E9+E10+E11+E12</f>
         <v>0</v>
       </c>
       <c r="F13" s="16">
@@ -2111,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17">
-        <f>G9+G10+G1+G12</f>
+        <f>G9+G10+G11+G12</f>
         <v>0</v>
       </c>
       <c r="H13" s="16">
@@ -2119,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="17">
-        <f>I9+I10+I1+I12</f>
+        <f>I9+I10+I11+I12</f>
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/patterns.xlsx
+++ b/src/main/resources/patterns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос 1" sheetId="1" r:id="rId1"/>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2097,27 +2097,27 @@
         <v>32</v>
       </c>
       <c r="D13" s="16">
-        <f>D9+D10+D11+D12</f>
+        <f t="shared" ref="D13:I13" si="0">D9+D10+D11+D12</f>
         <v>0</v>
       </c>
       <c r="E13" s="17">
-        <f>E9+E10+E11+E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <f>F9+F10+F1+F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="17">
-        <f>G9+G10+G11+G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="16">
-        <f>H9+H10+H1+H12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="17">
-        <f>I9+I10+I11+I12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
